--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\testing\Auth_Regis_Form_Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2524B7C8-CE94-4D4B-938F-CA9D6F08A221}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <t>Project</t>
   </si>
@@ -232,9 +241,6 @@
   </si>
   <si>
     <t>Проверка, что авторизация не проходит, при вводе некорректного Password</t>
-  </si>
-  <si>
-    <t>Fail - ❌</t>
   </si>
   <si>
     <t>Пустой Password</t>
@@ -282,23 +288,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -309,7 +320,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -331,27 +342,39 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -361,6 +384,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -375,65 +399,58 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -623,762 +640,767 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.25"/>
-    <col customWidth="1" min="3" max="3" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="17.75"/>
-    <col customWidth="1" min="5" max="5" width="19.63"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6">
-        <v>45680.0</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="3">
+        <v>45680</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" ht="51.0" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" ht="49.5" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" ht="39.0" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" ht="45.75" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" ht="40.5" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="54.0" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="45.75" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="51.75" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="18.0" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" ht="69.0" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="69.75" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="57.75" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="54.75" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="59.25" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="E19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="21.0" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" ht="48.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="E20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="43.5" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="53.25" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" ht="24.0" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="63.75" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" ht="56.25" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" ht="49.5" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" ht="49.5" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" ht="49.5" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="E29" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" ht="49.5" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" ht="58.5" customHeight="1">
-      <c r="A32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" ht="26.25" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" ht="78.75" customHeight="1">
-      <c r="A34" s="11" t="s">
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" ht="67.5" customHeight="1">
-      <c r="A35" s="11" t="s">
+      <c r="E34" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" ht="48.0" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="E35" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" ht="73.5" customHeight="1">
-      <c r="A37" s="11" t="s">
+      <c r="E36" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" ht="66.75" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="E37" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" ht="39.75" customHeight="1">
-      <c r="A39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" ht="79.5" customHeight="1">
-      <c r="A41" s="11" t="s">
+      <c r="B41" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" ht="72.0" customHeight="1">
-      <c r="A42" s="11" t="s">
+      <c r="D42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="C43" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" ht="68.25" customHeight="1">
-      <c r="A43" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" ht="81.0" customHeight="1">
-      <c r="A45" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="C45" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="E45" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" ht="78.75" customHeight="1">
-      <c r="A46" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48">
-      <c r="E48" s="14"/>
+      <c r="E46" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1388,11 +1410,11 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E14 E16:E20 E22:E24 E26:E32 E34:E39 E41:E43 E45:E46">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E14 E16:E20 E22:E24 E26:E32 E34:E39 E41:E43 E45:E46" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass - ✅,Fail - ❌,Not Run - ⬜"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\testing\Auth_Regis_Form_Tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2524B7C8-CE94-4D4B-938F-CA9D6F08A221}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>Project</t>
   </si>
@@ -241,6 +232,9 @@
   </si>
   <si>
     <t>Проверка, что авторизация не проходит, при вводе некорректного Password</t>
+  </si>
+  <si>
+    <t>Fail - ❌</t>
   </si>
   <si>
     <t>Пустой Password</t>
@@ -288,28 +282,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
+    <numFmt numFmtId="164" formatCode="dd.mm.yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -320,7 +309,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -342,39 +331,27 @@
     </fill>
   </fills>
   <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -384,7 +361,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -399,58 +375,65 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -640,767 +623,762 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="15.25"/>
+    <col customWidth="1" min="3" max="3" width="15.5"/>
+    <col customWidth="1" min="4" max="4" width="17.75"/>
+    <col customWidth="1" min="5" max="5" width="19.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="3">
-        <v>45680</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6">
+        <v>45680.0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" ht="51.0" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" ht="49.5" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="E8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" ht="39.0" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" ht="45.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" ht="40.5" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="54.0" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="45.75" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="51.75" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="E14" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="18.0" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" ht="69.0" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="E16" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="69.75" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="E17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="57.75" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="E18" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="54.75" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="59.25" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="E20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" ht="48.75" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="E22" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="43.5" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="E23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="53.25" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="E24" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.0" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" ht="63.75" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="E26" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="56.25" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="E27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="49.5" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="E28" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="49.5" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="E29" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="49.5" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="E30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="49.5" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="E31" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="58.5" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="E32" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" ht="26.25" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" ht="78.75" customHeight="1">
+      <c r="A34" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="E34" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="67.5" customHeight="1">
+      <c r="A35" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="E35" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="48.0" customHeight="1">
+      <c r="A36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="E36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="73.5" customHeight="1">
+      <c r="A37" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="E37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="66.75" customHeight="1">
+      <c r="A38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="E38" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" ht="39.75" customHeight="1">
+      <c r="A39" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="E39" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" ht="79.5" customHeight="1">
+      <c r="A41" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="D41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" ht="72.0" customHeight="1">
+      <c r="A42" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="B42" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="D42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="68.25" customHeight="1">
+      <c r="A43" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="B43" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="D43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="E43" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" ht="81.0" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="D45" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E45" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="78.75" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E48" s="7"/>
+      <c r="D46" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48">
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1410,11 +1388,11 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E14 E16:E20 E22:E24 E26:E32 E34:E39 E41:E43 E45:E46" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E14 E16:E20 E22:E24 E26:E32 E34:E39 E41:E43 E45:E46">
       <formula1>"Pass - ✅,Fail - ❌,Not Run - ⬜"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>